--- a/biology/Médecine/Syndrome_de_levée_d'obstacle/Syndrome_de_levée_d'obstacle.xlsx
+++ b/biology/Médecine/Syndrome_de_levée_d'obstacle/Syndrome_de_levée_d'obstacle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_de_lev%C3%A9e_d%27obstacle</t>
+          <t>Syndrome_de_levée_d'obstacle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome de levée d’obstacle est une polyurie massive faisant suite au traitement par drainage d’une insuffisance rénale obstructive[1].  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome de levée d’obstacle est une polyurie massive faisant suite au traitement par drainage d’une insuffisance rénale obstructive.  
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_de_lev%C3%A9e_d%27obstacle</t>
+          <t>Syndrome_de_levée_d'obstacle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce syndrome est responsable d'une perte rénale de liquides entraînant une déshydratation extracellulaire. Cette déshydratation peut conduire, dans les cas extrêmes, à un état de choc, et à une insuffisance rénale aiguë fonctionnelle[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce syndrome est responsable d'une perte rénale de liquides entraînant une déshydratation extracellulaire. Cette déshydratation peut conduire, dans les cas extrêmes, à un état de choc, et à une insuffisance rénale aiguë fonctionnelle. 
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_de_lev%C3%A9e_d%27obstacle</t>
+          <t>Syndrome_de_levée_d'obstacle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le traitement du syndrome de levée d’obstacle se fait par la correction des troubles hydroélectrolytiques et la surveillance des trois paramètres suivants : l'état d'hydratation, la diurèse et le ionogramme sanguin. La correction des troubles hydroélectrolytiques consiste à assurer un important apport par voie intraveineuse. Par exemple avec du sérum salé isotonique, le volume des entrées étant adapté à celui des sorties (diurèse des dernières heures). On peut également associer à des boissons libres si le patient est conscient[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le traitement du syndrome de levée d’obstacle se fait par la correction des troubles hydroélectrolytiques et la surveillance des trois paramètres suivants : l'état d'hydratation, la diurèse et le ionogramme sanguin. La correction des troubles hydroélectrolytiques consiste à assurer un important apport par voie intraveineuse. Par exemple avec du sérum salé isotonique, le volume des entrées étant adapté à celui des sorties (diurèse des dernières heures). On peut également associer à des boissons libres si le patient est conscient. 
 </t>
         </is>
       </c>
